--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>描述</t>
   </si>
@@ -66,6 +66,37 @@
     <t>0: 未找到用户名
 1: 用户名或密码错误
 2: 登陆成功</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>/user/Registration</t>
+  </si>
+  <si>
+    <t>{
+  String: usernumber
+  String: password
+  String: name
+  String: sex
+  String: Author
+  String: username
+}</t>
+  </si>
+  <si>
+    <t>{
+  state:1
+}</t>
+  </si>
+  <si>
+    <t>{
+state:0
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: 用户名已存在
+1: 注册成功
+</t>
   </si>
   <si>
     <t>玄幻分类</t>
@@ -290,14 +321,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,8 +364,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,52 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -417,21 +463,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -442,187 +473,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,30 +664,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -671,26 +678,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,8 +700,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +729,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -741,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,133 +784,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,10 +1243,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1252,7 +1283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="86.4" spans="1:7">
+    <row r="2" ht="72" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="115.2" spans="1:5">
+    <row r="3" ht="129.6" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1285,412 +1316,435 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="115.2" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="115.2" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="115.2" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="115.2" spans="1:5">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="115.2" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="115.2" spans="1:5">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="115.2" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="115.2" spans="1:5">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="115.2" spans="1:5">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="115.2" spans="1:5">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="115.2" spans="1:5">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="115.2" spans="1:5">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="115.2" spans="1:5">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="115.2" spans="1:5">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="115.2" spans="1:5">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="115.2" spans="1:5">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="115.2" spans="1:5">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="115.2" spans="1:5">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="115.2" spans="1:5">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="115.2" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="115.2" spans="1:5">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="115.2" spans="1:5">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="115.2" spans="1:5">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="115.2" spans="1:5">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="115.2" spans="1:5">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="115.2" spans="1:5">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="115.2" spans="1:5">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" ht="115.2" spans="1:5">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>描述</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>人员</t>
   </si>
   <si>
     <t>用户登陆</t>
@@ -66,6 +69,9 @@
     <t>0: 未找到用户名
 1: 用户名或密码错误
 2: 登陆成功</t>
+  </si>
+  <si>
+    <t>赵彬宇</t>
   </si>
   <si>
     <t>用户注册</t>
@@ -99,6 +105,26 @@
 </t>
   </si>
   <si>
+    <t>管理员登陆</t>
+  </si>
+  <si>
+    <t>/Administrator/landings</t>
+  </si>
+  <si>
+    <t>陈智强
+mapper文件：段雨含</t>
+  </si>
+  <si>
+    <t>管理员注册</t>
+  </si>
+  <si>
+    <t>/Administrator/Registration</t>
+  </si>
+  <si>
+    <t>赵彬宇
+mapper文件：段雨含</t>
+  </si>
+  <si>
     <t>玄幻分类</t>
   </si>
   <si>
@@ -145,12 +171,18 @@
     <t>/Classification/Xs</t>
   </si>
   <si>
+    <t>陈智强</t>
+  </si>
+  <si>
     <t>军事分类</t>
   </si>
   <si>
     <t>/Classification/Js</t>
   </si>
   <si>
+    <t>段雨含</t>
+  </si>
+  <si>
     <t>历史分类</t>
   </si>
   <si>
@@ -185,6 +217,9 @@
   </si>
   <si>
     <t>/Classification/Nsw</t>
+  </si>
+  <si>
+    <t>孙闻雪</t>
   </si>
   <si>
     <t>轻小说分类</t>
@@ -216,6 +251,10 @@
 }</t>
   </si>
   <si>
+    <t>赵彬宇
+mapper文件：孙闻雪</t>
+  </si>
+  <si>
     <t>全部作品</t>
   </si>
   <si>
@@ -291,14 +330,6 @@
   </si>
   <si>
     <t>/Home/Bjtj</t>
-  </si>
-  <si>
-    <t>/Search/Major</t>
-  </si>
-  <si>
-    <t>{
-  String: bookname
-}</t>
   </si>
 </sst>
 </file>
@@ -307,8 +338,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -321,22 +352,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,29 +388,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,6 +404,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,15 +442,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,6 +464,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -432,37 +494,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -473,73 +504,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,25 +654,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,79 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,16 +699,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,9 +730,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +744,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,32 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -772,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,142 +815,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1243,13 +1280,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="24.5555555555556" customWidth="1"/>
@@ -1258,9 +1295,10 @@
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="19.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="28.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="25.8703703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,470 +1320,602 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="72" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="129.6" spans="1:7">
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="129.6" spans="1:8">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:8">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="129.6" spans="1:8">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="115.2" spans="1:8">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="115.2" spans="1:8">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="115.2" spans="1:5">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="115.2" spans="1:5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="115.2" spans="1:5">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="115.2" spans="1:5">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="115.2" spans="1:5">
+    </row>
+    <row r="8" ht="115.2" spans="1:8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="115.2" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="115.2" spans="1:8">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="115.2" spans="1:8">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="115.2" spans="1:8">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="115.2" spans="1:8">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="115.2" spans="1:8">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="115.2" spans="1:5">
+    </row>
+    <row r="15" ht="115.2" spans="1:8">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="115.2" spans="1:8">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" ht="115.2" spans="1:5">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" ht="115.2" spans="1:5">
+    </row>
+    <row r="17" ht="115.2" spans="1:8">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" ht="115.2" spans="1:8">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" ht="115.2" spans="1:8">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="115.2" spans="1:8">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="115.2" spans="1:8">
       <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" ht="115.2" spans="1:8">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" ht="115.2" spans="1:8">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" ht="115.2" spans="1:8">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="115.2" spans="1:8">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="115.2" spans="1:8">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="115.2" spans="1:8">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" ht="115.2" spans="1:8">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" ht="115.2" spans="1:8">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="115.2" spans="1:8">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" ht="115.2" spans="1:5">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" ht="115.2" spans="1:5">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" ht="115.2" spans="1:5">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" ht="115.2" spans="1:5">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" ht="115.2" spans="1:5">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" ht="115.2" spans="1:5">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" ht="115.2" spans="1:5">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" ht="115.2" spans="1:5">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" ht="115.2" spans="1:5">
-      <c r="A30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" ht="115.2" spans="1:5">
+    </row>
+    <row r="31" ht="115.2" spans="1:8">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" ht="115.2" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="115.2" spans="1:8">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="115.2" spans="1:8">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
